--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_lossmod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015963559810669912</t>
-  </si>
-  <si>
-    <t>0.024572011464321582</t>
-  </si>
-  <si>
-    <t>0.03780884134268002</t>
-  </si>
-  <si>
-    <t>0.059577984893427735</t>
-  </si>
-  <si>
-    <t>0.09391112440882225</t>
-  </si>
-  <si>
-    <t>0.14809603899501922</t>
-  </si>
-  <si>
-    <t>0.2260094623026217</t>
-  </si>
-  <si>
-    <t>0.3563698700612645</t>
-  </si>
-  <si>
-    <t>0.5618874245696925</t>
-  </si>
-  <si>
-    <t>0.8576337949740367</t>
-  </si>
-  <si>
-    <t>1.3752677013112808</t>
-  </si>
-  <si>
-    <t>2.134100759995425</t>
-  </si>
-  <si>
-    <t>3.366713302343278</t>
-  </si>
-  <si>
-    <t>5.226282015108646</t>
-  </si>
-  <si>
-    <t>8.383617290729344</t>
-  </si>
-  <si>
-    <t>13.230313114422568</t>
-  </si>
-  <si>
-    <t>20.21217455763727</t>
-  </si>
-  <si>
-    <t>32.433139295384166</t>
-  </si>
-  <si>
-    <t>50.368532716332126</t>
-  </si>
-  <si>
-    <t>79.51910140343739</t>
-  </si>
-  <si>
-    <t>123.50476165695282</t>
-  </si>
-  <si>
-    <t>191.882217642288</t>
-  </si>
-  <si>
-    <t>302.9876746400891</t>
-  </si>
-  <si>
-    <t>463.1938734367467</t>
-  </si>
-  <si>
-    <t>221.3787152194619</t>
-  </si>
-  <si>
-    <t>289.36604535600816</t>
-  </si>
-  <si>
-    <t>405.72635965844506</t>
-  </si>
-  <si>
-    <t>648.8991222642144</t>
-  </si>
-  <si>
-    <t>975.8976277922746</t>
-  </si>
-  <si>
-    <t>1346.0485232610329</t>
-  </si>
-  <si>
-    <t>1907.4325039242913</t>
-  </si>
-  <si>
-    <t>2692.3062857795544</t>
-  </si>
-  <si>
-    <t>3844.228264841928</t>
-  </si>
-  <si>
-    <t>5282.496126736805</t>
-  </si>
-  <si>
-    <t>6763.804560994504</t>
-  </si>
-  <si>
-    <t>8954.842087430308</t>
-  </si>
-  <si>
-    <t>11481.22114871987</t>
-  </si>
-  <si>
-    <t>14165.824740403432</t>
-  </si>
-  <si>
-    <t>16947.039103415595</t>
-  </si>
-  <si>
-    <t>20353.415096932058</t>
-  </si>
-  <si>
-    <t>23524.806808191923</t>
-  </si>
-  <si>
-    <t>26481.308871769797</t>
-  </si>
-  <si>
-    <t>30119.587112838322</t>
-  </si>
-  <si>
-    <t>33496.26347940823</t>
-  </si>
-  <si>
-    <t>37396.86573531361</t>
-  </si>
-  <si>
-    <t>39260.62052233541</t>
-  </si>
-  <si>
-    <t>42177.055827653494</t>
-  </si>
-  <si>
-    <t>42775.16089683937</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.01596355981066991</v>
+      </c>
+      <c r="B2">
+        <v>221.3787152194619</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02457201146432158</v>
+      </c>
+      <c r="B3">
+        <v>289.3660453560082</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.03780884134268002</v>
+      </c>
+      <c r="B4">
+        <v>405.7263596584451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.05957798489342774</v>
+      </c>
+      <c r="B5">
+        <v>648.8991222642144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.09391112440882225</v>
+      </c>
+      <c r="B6">
+        <v>975.8976277922746</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1480960389950192</v>
+      </c>
+      <c r="B7">
+        <v>1346.048523261033</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2260094623026217</v>
+      </c>
+      <c r="B8">
+        <v>1907.432503924291</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3563698700612645</v>
+      </c>
+      <c r="B9">
+        <v>2692.306285779554</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5618874245696925</v>
+      </c>
+      <c r="B10">
+        <v>3844.228264841928</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.8576337949740367</v>
+      </c>
+      <c r="B11">
+        <v>5282.496126736805</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.375267701311281</v>
+      </c>
+      <c r="B12">
+        <v>6763.804560994504</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.134100759995425</v>
+      </c>
+      <c r="B13">
+        <v>8954.842087430308</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.366713302343278</v>
+      </c>
+      <c r="B14">
+        <v>11481.22114871987</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.226282015108646</v>
+      </c>
+      <c r="B15">
+        <v>14165.82474040343</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>8.383617290729344</v>
+      </c>
+      <c r="B16">
+        <v>16947.03910341559</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.23031311442257</v>
+      </c>
+      <c r="B17">
+        <v>20353.41509693206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>20.21217455763727</v>
+      </c>
+      <c r="B18">
+        <v>23524.80680819192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>32.43313929538417</v>
+      </c>
+      <c r="B19">
+        <v>26481.3088717698</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>50.36853271633213</v>
+      </c>
+      <c r="B20">
+        <v>30119.58711283832</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>79.51910140343739</v>
+      </c>
+      <c r="B21">
+        <v>33496.26347940823</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>123.5047616569528</v>
+      </c>
+      <c r="B22">
+        <v>37396.86573531361</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>191.882217642288</v>
+      </c>
+      <c r="B23">
+        <v>39260.62052233541</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>302.9876746400891</v>
+      </c>
+      <c r="B24">
+        <v>42177.05582765349</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>463.1938734367467</v>
+      </c>
+      <c r="B25">
+        <v>42775.16089683937</v>
       </c>
     </row>
   </sheetData>
